--- a/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="week26-27" sheetId="7" r:id="rId1"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
+    <sheet name="week26-27" sheetId="7" r:id="rId2"/>
+    <sheet name="week28-29" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>分组</t>
   </si>
@@ -245,15 +246,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>成都银行无纸化投标（外出）</t>
+    <t>华泰证券交流（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>小贷平台多方签署方案实施学习</t>
+    <t>华泰证券交流（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KT+RA+SADK全流程接口调用</t>
+    <t>施耐德电气交流（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安邦保险搭伙科技无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券POC测试方案编写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码控件产品学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子印章服务器搭建，接口学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子印章服务器搭建，接口学习，组内例会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅银行无纸化咨询，第三方渠道集成实施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险行业系统开发商交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网医疗平台无纸化方案编写</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,15 +969,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,13 +1008,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,343 +1413,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="34">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="34">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -1722,32 +1427,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1756,8 +1461,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1517,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1832,7 +1537,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1555,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1573,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1888,7 +1593,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1906,7 +1611,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1924,7 +1629,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1944,7 +1649,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1962,7 +1667,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2000,7 +1705,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2020,7 +1725,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2038,7 +1743,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2056,7 +1761,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2076,7 +1781,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +1799,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +1817,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2132,7 +1837,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2150,7 +1855,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2208,7 +1913,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2228,7 +1933,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +1951,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2266,7 +1971,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2284,7 +1989,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2007,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2320,7 +2025,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2043,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2061,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2079,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2097,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2115,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2133,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2447,11 +2152,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2462,9 +2162,668 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>28</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,7,10)</f>
+        <v>42926</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42927</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42928</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42929</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42930</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42931</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42932</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42933</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42934</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42935</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42936</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42937</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42938</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42939</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>分组</t>
   </si>
@@ -278,15 +278,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>焦作中旅银行无纸化咨询，第三方渠道集成实施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>保险行业系统开发商交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>互联网医疗平台无纸化方案编写</t>
+    <t>万科集团统一电子签章平台项目投标前交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内周会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品汇报会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加产品汇报会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险行业系统开发商交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险行业方案更新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱知之星合作交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星保险投标前交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网医疗无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金行业无纸化方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -975,6 +1007,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,33 +1041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1427,32 +1459,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="40"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1461,8 +1493,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1549,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1537,7 +1569,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1587,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1605,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1593,7 +1625,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1643,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1629,7 +1661,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1649,7 +1681,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1699,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1737,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1725,7 +1757,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1743,7 +1775,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1761,7 +1793,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1781,7 +1813,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1831,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1817,7 +1849,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1837,7 +1869,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1887,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1913,7 +1945,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1933,7 +1965,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1951,7 +1983,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1971,7 +2003,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +2021,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2007,7 +2039,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2057,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2043,7 +2075,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +2093,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2079,7 +2111,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +2129,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2115,7 +2147,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2165,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2152,6 +2184,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2162,11 +2199,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2189,13 +2221,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2213,47 +2245,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="45">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2338,13 +2370,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2362,47 +2394,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2450,10 +2482,10 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -2487,11 +2519,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2505,6 +2532,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,7 +2549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4:K4"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2526,13 +2558,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2550,47 +2582,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="45">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2639,34 +2671,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="J4" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -2675,13 +2707,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2699,47 +2731,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="45">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2787,16 +2819,36 @@
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -2804,16 +2856,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2822,8 +2864,19 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="week26-27" sheetId="7" r:id="rId2"/>
     <sheet name="week28-29" sheetId="9" r:id="rId3"/>
+    <sheet name="week30-31" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
   <si>
     <t>分组</t>
   </si>
@@ -319,6 +320,40 @@
   </si>
   <si>
     <t>公积金行业无纸化方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>延边农商行无纸化、网络身份认证平台交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅助贷平台无纸化应用方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代汽车金融无纸化项目技术评比会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网医疗无纸化方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东农信无纸化项目标书编制
+河南农信无纸化项目标书编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银三星保险无纸化立项跟进
+互联网医疗无纸化方案编制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品管理-案例梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品管理-DEMO原型设计</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1045,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,15 +1073,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,32 +1500,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1493,8 +1534,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1590,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1569,7 +1610,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1628,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1646,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1625,7 +1666,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +1684,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1702,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1681,7 +1722,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1740,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +1778,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1757,7 +1798,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1775,7 +1816,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1793,7 +1834,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1813,7 +1854,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1831,7 +1872,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1849,7 +1890,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1869,7 +1910,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1887,7 +1928,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1986,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1965,7 +2006,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1983,7 +2024,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2003,7 +2044,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2062,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2080,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2057,7 +2098,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2075,7 +2116,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2134,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2152,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2170,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2147,7 +2188,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2206,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2184,11 +2225,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2199,6 +2235,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,13 +2262,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2245,47 +2286,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="47">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -2370,13 +2411,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2394,47 +2435,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2519,6 +2560,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2532,11 +2578,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
@@ -2558,13 +2599,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -2582,47 +2623,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="47">
         <f>DATE(2017,7,10)</f>
         <v>42926</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
         <f>SUM(B2+1)</f>
         <v>42927</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42928</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42929</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42930</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42931</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42932</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
@@ -2707,13 +2748,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2731,47 +2772,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>B2+7</f>
         <v>42933</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42934</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42935</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42936</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42937</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42938</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42939</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
@@ -2856,6 +2897,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2869,11 +2915,344 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="47">
+        <f>DATE(2017,7,24)</f>
+        <v>42940</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47">
+        <f>SUM(B2+1)</f>
+        <v>42941</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42942</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42943</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42944</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42945</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42946</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="47">
+        <f>B2+7</f>
+        <v>42947</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42948</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42949</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42950</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42951</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42952</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42953</v>
+      </c>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
